--- a/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.1_KS_Holdout_seed_999/metrics/Trial_468__Reeval_Halton_Modell_1.1.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.1_KS_Holdout_seed_999/metrics/Trial_468__Reeval_Halton_Modell_1.1.xlsx
@@ -5999,7 +5999,7 @@
                   <c:v>42.64487075805664</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50.92435073852539</c:v>
+                  <c:v>50.92434692382812</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.7181443572044373</c:v>
@@ -6014,28 +6014,28 @@
                   <c:v>0.7181443572044373</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44.86712265014648</c:v>
+                  <c:v>44.86713027954102</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>50.45706939697266</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.8822234869003296</c:v>
+                  <c:v>0.8822210431098938</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.03828226774930954</c:v>
+                  <c:v>0.0382896363735199</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>51.75327682495117</c:v>
+                  <c:v>51.75327301025391</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>42.75670623779297</c:v>
+                  <c:v>42.75669860839844</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0.7181443572044373</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.045567035675049</c:v>
+                  <c:v>7.045567989349365</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>42.72466278076172</c:v>
@@ -6050,19 +6050,19 @@
                   <c:v>43.99871063232422</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.2240159809589386</c:v>
+                  <c:v>0.2240135222673416</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.758320808410645</c:v>
+                  <c:v>5.758322238922119</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>2.448265314102173</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>12.81082439422607</c:v>
+                  <c:v>12.81082153320312</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.7289397120475769</c:v>
+                  <c:v>0.7289421558380127</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>43.99081420898438</c:v>
@@ -6083,22 +6083,22 @@
                   <c:v>42.96465682983398</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.2139720767736435</c:v>
+                  <c:v>0.2139769941568375</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0.7181443572044373</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.295411229133606</c:v>
+                  <c:v>1.295408725738525</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.7161895632743835</c:v>
+                  <c:v>0.7161871194839478</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>2.082885503768921</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.020524978637695</c:v>
+                  <c:v>4.020522594451904</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>0.7181443572044373</c:v>
@@ -6116,7 +6116,7 @@
                   <c:v>0.7181443572044373</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>5.649302959442139</c:v>
+                  <c:v>5.649298191070557</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>0.7181443572044373</c:v>
@@ -6128,7 +6128,7 @@
                   <c:v>0.7181443572044373</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-0.6699925065040588</c:v>
+                  <c:v>-0.669990062713623</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>1.283933162689209</c:v>
@@ -6137,25 +6137,25 @@
                   <c:v>53.11249923706055</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>13.13279056549072</c:v>
+                  <c:v>13.13278961181641</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>42.09297180175781</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>42.7673225402832</c:v>
+                  <c:v>42.76733016967773</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>8.128399848937988</c:v>
+                  <c:v>8.128400802612305</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>52.50394058227539</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.324504166841507</c:v>
+                  <c:v>0.3245066404342651</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>42.9100341796875</c:v>
+                  <c:v>42.91004180908203</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>0.7181443572044373</c:v>
@@ -6170,13 +6170,13 @@
                   <c:v>0.7181443572044373</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2.173199653625488</c:v>
+                  <c:v>2.173197269439697</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>0.7181443572044373</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2.489189863204956</c:v>
+                  <c:v>2.489187479019165</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>43.08152008056641</c:v>
@@ -6188,10 +6188,10 @@
                   <c:v>45.87423706054688</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>6.457908630371094</c:v>
+                  <c:v>6.457903861999512</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>43.29686737060547</c:v>
+                  <c:v>43.29687118530273</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>42.42182159423828</c:v>
@@ -6206,10 +6206,10 @@
                   <c:v>50.79952239990234</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>47.80449295043945</c:v>
+                  <c:v>47.80448913574219</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>42.55873107910156</c:v>
+                  <c:v>42.55872344970703</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>0.157576397061348</c:v>
@@ -6221,7 +6221,7 @@
                   <c:v>52.26476287841797</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>20.34900665283203</c:v>
+                  <c:v>20.34900856018066</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>38.30436706542969</c:v>
@@ -6257,10 +6257,10 @@
                   <c:v>0.7181443572044373</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>24.6888313293457</c:v>
+                  <c:v>24.68883514404297</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>26.29610633850098</c:v>
+                  <c:v>26.29610252380371</c:v>
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>49.55321502685547</c:v>
@@ -6284,7 +6284,7 @@
                   <c:v>39.49959182739258</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.849338889122009</c:v>
+                  <c:v>1.849334001541138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7107,7 +7107,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>50.92435073852539</v>
+        <v>50.92434692382812</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -7231,7 +7231,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>44.86712265014648</v>
+        <v>44.86713027954102</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -7271,7 +7271,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.8822234869003296</v>
+        <v>0.8822210431098938</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -7291,7 +7291,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.03828226774930954</v>
+        <v>0.0382896363735199</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7311,7 +7311,7 @@
         <v>48.3736</v>
       </c>
       <c r="F15">
-        <v>51.75327682495117</v>
+        <v>51.75327301025391</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -7331,7 +7331,7 @@
         <v>41.5994</v>
       </c>
       <c r="F16">
-        <v>42.75670623779297</v>
+        <v>42.75669860839844</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7371,7 +7371,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>7.045567035675049</v>
+        <v>7.045567989349365</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.2240159809589386</v>
+        <v>0.2240135222673416</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>37.4762</v>
       </c>
       <c r="F24">
-        <v>5.758320808410645</v>
+        <v>5.758322238922119</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>12.81082439422607</v>
+        <v>12.81082153320312</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>0.7289397120475769</v>
+        <v>0.7289421558380127</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>0.2139720767736435</v>
+        <v>0.2139769941568375</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.295411229133606</v>
+        <v>1.295408725738525</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>0.7161895632743835</v>
+        <v>0.7161871194839478</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>4.020524978637695</v>
+        <v>4.020522594451904</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>5.649302959442139</v>
+        <v>5.649298191070557</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>-0.6699925065040588</v>
+        <v>-0.669990062713623</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>13.13279056549072</v>
+        <v>13.13278961181641</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>57.1504</v>
       </c>
       <c r="F54">
-        <v>42.7673225402832</v>
+        <v>42.76733016967773</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>8.128399848937988</v>
+        <v>8.128400802612305</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>0.324504166841507</v>
+        <v>0.3245066404342651</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>43.4308</v>
       </c>
       <c r="F58">
-        <v>42.9100341796875</v>
+        <v>42.91004180908203</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8271,7 +8271,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>2.173199653625488</v>
+        <v>2.173197269439697</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8311,7 +8311,7 @@
         <v>50.5748</v>
       </c>
       <c r="F65">
-        <v>2.489189863204956</v>
+        <v>2.489187479019165</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8391,7 +8391,7 @@
         <v>49.3915</v>
       </c>
       <c r="F69">
-        <v>6.457908630371094</v>
+        <v>6.457903861999512</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8411,7 +8411,7 @@
         <v>46.1004</v>
       </c>
       <c r="F70">
-        <v>43.29686737060547</v>
+        <v>43.29687118530273</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8511,7 +8511,7 @@
         <v>30.9889</v>
       </c>
       <c r="F75">
-        <v>47.80449295043945</v>
+        <v>47.80448913574219</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8531,7 +8531,7 @@
         <v>43.1068</v>
       </c>
       <c r="F76">
-        <v>42.55873107910156</v>
+        <v>42.55872344970703</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8611,7 +8611,7 @@
         <v>38.3322</v>
       </c>
       <c r="F80">
-        <v>20.34900665283203</v>
+        <v>20.34900856018066</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8851,7 +8851,7 @@
         <v>40.9911</v>
       </c>
       <c r="F92">
-        <v>24.6888313293457</v>
+        <v>24.68883514404297</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -8871,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>26.29610633850098</v>
+        <v>26.29610252380371</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -9031,7 +9031,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.849338889122009</v>
+        <v>1.849334001541138</v>
       </c>
     </row>
     <row r="102" spans="1:6">
